--- a/test scenario.xlsx
+++ b/test scenario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manual-Test-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3C1542-88DD-4575-B596-6B93AD8634A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696DD679-5069-4342-84E8-A5ABF1AEC067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="144" windowWidth="17280" windowHeight="8964" xr2:uid="{2011EA60-F8DF-4E4C-B44A-07CE0DB7193D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2011EA60-F8DF-4E4C-B44A-07CE0DB7193D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Requirement</t>
   </si>
@@ -54,6 +52,9 @@
   </si>
   <si>
     <t>Check the usability of login page</t>
+  </si>
+  <si>
+    <t>Check Registration functionality</t>
   </si>
 </sst>
 </file>
@@ -116,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A6D46F9-C622-4297-8411-ADE35E907994}" name="Table1" displayName="Table1" ref="B2:C5" totalsRowShown="0">
-  <autoFilter ref="B2:C5" xr:uid="{8A6D46F9-C622-4297-8411-ADE35E907994}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A6D46F9-C622-4297-8411-ADE35E907994}" name="Table1" displayName="Table1" ref="B2:C6" totalsRowShown="0">
+  <autoFilter ref="B2:C6" xr:uid="{8A6D46F9-C622-4297-8411-ADE35E907994}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{83DD58AB-42CC-4727-A155-4ECACBD10A22}" name="Requirement"/>
     <tableColumn id="2" xr3:uid="{0CF09685-AFB7-4F50-92AC-138AE9480D04}" name="Scenario"/>
@@ -423,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9752B751-9B16-47E7-9DC8-5222490E1914}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,6 +462,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
